--- a/cd/1.1-Te-dhenat-kadastrale-zyrtare-ne-forme-digjitale-976-11-Eshref-Beka.xlsx
+++ b/cd/1.1-Te-dhenat-kadastrale-zyrtare-ne-forme-digjitale-976-11-Eshref-Beka.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
@@ -11,9 +11,9 @@
     <sheet name="efemeroid" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$B$2:$N$125</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$B$2:$M$77</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="47">
   <si>
     <t>Pikat zyrtare</t>
   </si>
@@ -142,12 +142,6 @@
     <t>RTCM-Ref 0803</t>
   </si>
   <si>
-    <t>Control</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>OBJEKT</t>
   </si>
   <si>
@@ -163,7 +157,13 @@
     <t>RTCM-Ref 1992</t>
   </si>
   <si>
-    <t>MURI</t>
+    <t>976-15</t>
+  </si>
+  <si>
+    <t>976-16</t>
+  </si>
+  <si>
+    <t>Shufër metalike</t>
   </si>
 </sst>
 </file>
@@ -673,14 +673,13 @@
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -693,21 +692,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -716,21 +707,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1065,1217 +1046,775 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:Z84"/>
+  <dimension ref="B2:X27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q32" sqref="Q32"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.140625" customWidth="1"/>
-    <col min="3" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.7109375" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.5703125" style="18" customWidth="1"/>
-    <col min="14" max="14" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.7109375" customWidth="1"/>
-    <col min="16" max="16" width="7.28515625" customWidth="1"/>
-    <col min="17" max="18" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.140625" customWidth="1"/>
-    <col min="21" max="21" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="5.7109375" customWidth="1"/>
-    <col min="23" max="24" width="7.7109375" customWidth="1"/>
-    <col min="25" max="25" width="4.7109375" customWidth="1"/>
+    <col min="1" max="1" width="3.140625" style="13" customWidth="1"/>
+    <col min="2" max="2" width="4.42578125" style="13" customWidth="1"/>
+    <col min="3" max="4" width="11.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.7109375" style="13" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="12" style="13" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9" style="13" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7" style="13" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.7109375" style="13" customWidth="1"/>
+    <col min="15" max="15" width="3.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="11.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.7109375" style="13" customWidth="1"/>
+    <col min="19" max="19" width="6" style="13" customWidth="1"/>
+    <col min="20" max="20" width="15.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5.7109375" style="13" customWidth="1"/>
+    <col min="22" max="22" width="7.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="4" style="13" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="3.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="13"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:25">
-      <c r="B2" s="24" t="s">
+    <row r="2" spans="2:24">
+      <c r="B2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="G2" s="24" t="s">
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="F2" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="26" t="s">
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="26"/>
-      <c r="S2" s="26"/>
-      <c r="T2" s="26"/>
-      <c r="U2" s="26"/>
-      <c r="W2" s="17" t="s">
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
+      <c r="V2" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="X2" s="25" t="s">
+      <c r="W2" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="Y2" s="25"/>
-    </row>
-    <row r="3" spans="2:25">
-      <c r="B3" s="15" t="s">
+      <c r="X2" s="16"/>
+    </row>
+    <row r="3" spans="2:24">
+      <c r="B3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="F3" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="M3" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="N3" s="14"/>
+      <c r="O3" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="P3" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q3" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="R3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="S3" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="T3" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="V3" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="W3" s="4">
+        <v>814</v>
+      </c>
+      <c r="X3" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="2:24">
+      <c r="B4" s="7">
         <v>1</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="C4" s="5">
+        <v>7512116.6869999999</v>
+      </c>
+      <c r="D4" s="5">
+        <v>4691265.5640000002</v>
+      </c>
+      <c r="F4" s="7">
+        <v>10</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="8">
+        <v>43880.677222222221</v>
+      </c>
+      <c r="I4" s="7">
+        <v>7512152.3041000003</v>
+      </c>
+      <c r="J4" s="7">
+        <v>4691234.7411000002</v>
+      </c>
+      <c r="K4" s="7">
+        <v>610.76030000000003</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="M4" s="7">
+        <v>2.3800000000000002E-2</v>
+      </c>
+      <c r="N4" s="14"/>
+      <c r="O4" s="7">
+        <v>1</v>
+      </c>
+      <c r="P4" s="5">
+        <v>7512154.9110000003</v>
+      </c>
+      <c r="Q4" s="5">
+        <v>4691254.0810000002</v>
+      </c>
+      <c r="R4" s="7">
+        <v>610.71130000000005</v>
+      </c>
+      <c r="S4" s="1">
+        <v>3</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="V4" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="W4" s="4">
+        <v>176</v>
+      </c>
+      <c r="X4" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="2:24">
+      <c r="B5" s="7">
+        <v>2</v>
+      </c>
+      <c r="C5" s="5">
+        <v>7512114.852</v>
+      </c>
+      <c r="D5" s="5">
+        <v>4691276.92</v>
+      </c>
+      <c r="F5" s="7">
         <v>11</v>
       </c>
-      <c r="I3" s="15" t="s">
+      <c r="G5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="8">
+        <v>43880.677557870367</v>
+      </c>
+      <c r="I5" s="7">
+        <v>7512151.7724000001</v>
+      </c>
+      <c r="J5" s="7">
+        <v>4691234.5689000003</v>
+      </c>
+      <c r="K5" s="7">
+        <v>610.74659999999994</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M5" s="7">
+        <v>1.61E-2</v>
+      </c>
+      <c r="N5" s="14"/>
+      <c r="O5" s="7">
+        <v>2</v>
+      </c>
+      <c r="P5" s="5">
+        <v>7512146.3619999997</v>
+      </c>
+      <c r="Q5" s="5">
+        <v>4691255.6040000003</v>
+      </c>
+      <c r="R5" s="7">
+        <v>610.70129999999995</v>
+      </c>
+      <c r="S5" s="1">
+        <v>3</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="V5" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="W5" s="10">
+        <f>W3+W4</f>
+        <v>990</v>
+      </c>
+      <c r="X5" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="2:24">
+      <c r="B6" s="7">
+        <v>3</v>
+      </c>
+      <c r="C6" s="5">
+        <v>7512137.8329999996</v>
+      </c>
+      <c r="D6" s="5">
+        <v>4691276.5199999996</v>
+      </c>
+      <c r="F6" s="7">
         <v>12</v>
       </c>
-      <c r="J3" s="15" t="s">
+      <c r="G6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="8">
+        <v>43880.677893518521</v>
+      </c>
+      <c r="I6" s="7">
+        <v>7512155.2353999997</v>
+      </c>
+      <c r="J6" s="7">
+        <v>4691253.6283</v>
+      </c>
+      <c r="K6" s="7">
+        <v>610.67970000000003</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M6" s="7">
+        <v>1.34E-2</v>
+      </c>
+      <c r="N6" s="14"/>
+    </row>
+    <row r="7" spans="2:24">
+      <c r="B7" s="7">
+        <v>4</v>
+      </c>
+      <c r="C7" s="5">
+        <v>7512136.1260000002</v>
+      </c>
+      <c r="D7" s="5">
+        <v>4691261.4890000001</v>
+      </c>
+      <c r="F7" s="7">
+        <v>13</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="8">
+        <v>43880.678113425929</v>
+      </c>
+      <c r="I7" s="7">
+        <v>7512153.7981000002</v>
+      </c>
+      <c r="J7" s="7">
+        <v>4691245.1415999997</v>
+      </c>
+      <c r="K7" s="7">
+        <v>610.88059999999996</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="M7" s="7">
+        <v>1.0500000000000001E-2</v>
+      </c>
+      <c r="N7" s="14"/>
+    </row>
+    <row r="8" spans="2:24">
+      <c r="B8" s="7">
+        <v>5</v>
+      </c>
+      <c r="C8" s="5">
+        <v>7512146.1459999997</v>
+      </c>
+      <c r="D8" s="5">
+        <v>4691259.7050000001</v>
+      </c>
+      <c r="F8" s="7">
+        <v>14</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" s="8">
+        <v>43880.679108796299</v>
+      </c>
+      <c r="I8" s="7">
+        <v>7512160.9714000002</v>
+      </c>
+      <c r="J8" s="7">
+        <v>4691244.0833999999</v>
+      </c>
+      <c r="K8" s="7">
+        <v>610.86940000000004</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="M8" s="7">
+        <v>1.21E-2</v>
+      </c>
+      <c r="N8" s="14"/>
+    </row>
+    <row r="9" spans="2:24">
+      <c r="B9" s="7">
         <v>6</v>
       </c>
-      <c r="K3" s="15" t="s">
+      <c r="C9" s="5">
+        <v>7512154.0080000004</v>
+      </c>
+      <c r="D9" s="5">
+        <v>4691258.3049999997</v>
+      </c>
+      <c r="F9" s="7">
+        <v>15</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" s="8">
+        <v>43880.679444444446</v>
+      </c>
+      <c r="I9" s="7">
+        <v>7512159.4502999997</v>
+      </c>
+      <c r="J9" s="7">
+        <v>4691233.7202000003</v>
+      </c>
+      <c r="K9" s="7">
+        <v>610.67780000000005</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="M9" s="7">
+        <v>2.8299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:24">
+      <c r="B10" s="7">
         <v>7</v>
       </c>
-      <c r="L3" s="15" t="s">
+      <c r="C10" s="5">
+        <v>7512163.6950000003</v>
+      </c>
+      <c r="D10" s="5">
+        <v>4691256.58</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" s="8">
+        <v>43880.672384259262</v>
+      </c>
+      <c r="I10" s="7">
+        <v>7512154.9194</v>
+      </c>
+      <c r="J10" s="7">
+        <v>4691254.08</v>
+      </c>
+      <c r="K10" s="7">
+        <v>610.71130000000005</v>
+      </c>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7">
+        <v>1.77E-2</v>
+      </c>
+      <c r="N10" s="14"/>
+    </row>
+    <row r="11" spans="2:24">
+      <c r="B11" s="7">
+        <v>8</v>
+      </c>
+      <c r="C11" s="5">
+        <v>7512165.1830000002</v>
+      </c>
+      <c r="D11" s="5">
+        <v>4691266.0870000003</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" s="8">
+        <v>43880.672939814816</v>
+      </c>
+      <c r="I11" s="7">
+        <v>7512146.3594000004</v>
+      </c>
+      <c r="J11" s="7">
+        <v>4691255.5882000001</v>
+      </c>
+      <c r="K11" s="7">
+        <v>610.70129999999995</v>
+      </c>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7">
+        <v>1.5800000000000002E-2</v>
+      </c>
+      <c r="N11" s="14"/>
+    </row>
+    <row r="12" spans="2:24">
+      <c r="B12" s="7">
+        <v>9</v>
+      </c>
+      <c r="C12" s="5">
+        <v>7512166.5130000003</v>
+      </c>
+      <c r="D12" s="5">
+        <v>4691274.5839999998</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" s="8">
+        <v>43880.67459490741</v>
+      </c>
+      <c r="I12" s="7">
+        <v>7512144.1547999997</v>
+      </c>
+      <c r="J12" s="7">
+        <v>4691234.6127000004</v>
+      </c>
+      <c r="K12" s="7">
+        <v>610.64239999999995</v>
+      </c>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7">
+        <v>3.4099999999999998E-2</v>
+      </c>
+      <c r="N12" s="14"/>
+    </row>
+    <row r="13" spans="2:24">
+      <c r="B13" s="7">
+        <v>10</v>
+      </c>
+      <c r="C13" s="5">
+        <v>7512157.5659999996</v>
+      </c>
+      <c r="D13" s="5">
+        <v>4691276.176</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" s="8">
+        <v>43880.676215277781</v>
+      </c>
+      <c r="I13" s="7">
+        <v>7512152.3095000004</v>
+      </c>
+      <c r="J13" s="7">
+        <v>4691233.6383999996</v>
+      </c>
+      <c r="K13" s="7">
+        <v>610.78030000000001</v>
+      </c>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7">
+        <v>4.5400000000000003E-2</v>
+      </c>
+      <c r="N13" s="14"/>
+    </row>
+    <row r="14" spans="2:24">
+      <c r="B14" s="7">
+        <v>11</v>
+      </c>
+      <c r="C14" s="5">
+        <v>7512162.6119999997</v>
+      </c>
+      <c r="D14" s="5">
+        <v>4691276.0880000005</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" s="8">
+        <v>43880.675092592595</v>
+      </c>
+      <c r="I14" s="7">
+        <v>7512144.2679000003</v>
+      </c>
+      <c r="J14" s="7">
+        <v>4691235.2572999997</v>
+      </c>
+      <c r="K14" s="7">
+        <v>610.63170000000002</v>
+      </c>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7">
+        <v>2.29E-2</v>
+      </c>
+      <c r="N14" s="14"/>
+    </row>
+    <row r="15" spans="2:24">
+      <c r="B15" s="7">
+        <v>12</v>
+      </c>
+      <c r="C15" s="5">
+        <v>7512181.04</v>
+      </c>
+      <c r="D15" s="5">
+        <v>4691272.142</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" s="8">
+        <v>43880.676840277774</v>
+      </c>
+      <c r="I15" s="7">
+        <v>7512152.2906999998</v>
+      </c>
+      <c r="J15" s="7">
+        <v>4691234.3432999998</v>
+      </c>
+      <c r="K15" s="7">
+        <v>610.74570000000006</v>
+      </c>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7">
+        <v>2.0799999999999999E-2</v>
+      </c>
+      <c r="N15" s="14"/>
+    </row>
+    <row r="16" spans="2:24">
+      <c r="B16" s="7">
         <v>13</v>
       </c>
-      <c r="M3" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="N3" s="15" t="s">
+      <c r="C16" s="5">
+        <v>7512176.4119999995</v>
+      </c>
+      <c r="D16" s="5">
+        <v>4691250.2460000003</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H16" s="8">
+        <v>43880.671666666669</v>
+      </c>
+      <c r="I16" s="7">
+        <v>7512153.9415999996</v>
+      </c>
+      <c r="J16" s="7">
+        <v>4691252.3926999997</v>
+      </c>
+      <c r="K16" s="7">
+        <v>609.07100000000003</v>
+      </c>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7">
+        <v>0</v>
+      </c>
+      <c r="N16" s="14"/>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" s="7">
         <v>14</v>
       </c>
-      <c r="O3" s="4"/>
-      <c r="P3" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="R3" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="S3" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="T3" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="U3" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="W3" s="8"/>
-      <c r="X3" s="5"/>
-      <c r="Y3" s="8"/>
-    </row>
-    <row r="4" spans="2:25">
-      <c r="B4" s="8"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="9"/>
-      <c r="G4" s="8">
-        <v>1</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="I4" s="10">
-        <v>43880.65898148148</v>
-      </c>
-      <c r="J4" s="6">
+      <c r="C17" s="5">
+        <v>7512175.3360000001</v>
+      </c>
+      <c r="D17" s="5">
+        <v>4691245.9740000004</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" s="7">
+        <v>15</v>
+      </c>
+      <c r="C18" s="5">
+        <v>7512171.824</v>
+      </c>
+      <c r="D18" s="5">
+        <v>4691246.5829999996</v>
+      </c>
+      <c r="F18" s="14"/>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" s="7">
+        <v>16</v>
+      </c>
+      <c r="C19" s="5">
+        <v>7512172.5599999996</v>
+      </c>
+      <c r="D19" s="5">
+        <v>4691250.9380000001</v>
+      </c>
+      <c r="F19" s="14"/>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20" s="7">
+        <v>17</v>
+      </c>
+      <c r="C20" s="5">
+        <v>7512162.4249999998</v>
+      </c>
+      <c r="D20" s="5">
+        <v>4691252.7429999998</v>
+      </c>
+      <c r="F20" s="14"/>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21" s="7">
+        <v>18</v>
+      </c>
+      <c r="C21" s="5">
         <v>7512154.9110000003</v>
       </c>
-      <c r="K4" s="6">
+      <c r="D21" s="5">
         <v>4691254.0810000002</v>
       </c>
-      <c r="L4" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="O4" s="4"/>
-      <c r="P4" s="8">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
-      <c r="T4" s="1"/>
-      <c r="U4" s="1"/>
-      <c r="W4" s="8"/>
-      <c r="X4" s="5"/>
-      <c r="Y4" s="8"/>
-    </row>
-    <row r="5" spans="2:25">
-      <c r="B5" s="8"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="9"/>
-      <c r="G5" s="8">
-        <v>2</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="I5" s="10">
-        <v>43880.659421296295</v>
-      </c>
-      <c r="J5" s="6">
+      <c r="F21" s="14"/>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="B22" s="7">
+        <v>19</v>
+      </c>
+      <c r="C22" s="5">
+        <v>7512152.3020000001</v>
+      </c>
+      <c r="D22" s="5">
+        <v>4691233.6469999999</v>
+      </c>
+      <c r="F22" s="14"/>
+    </row>
+    <row r="23" spans="2:6">
+      <c r="B23" s="7">
+        <v>20</v>
+      </c>
+      <c r="C23" s="5">
+        <v>7512144.1469999999</v>
+      </c>
+      <c r="D23" s="5">
+        <v>4691234.6270000003</v>
+      </c>
+      <c r="F23" s="14"/>
+    </row>
+    <row r="24" spans="2:6">
+      <c r="B24" s="7">
+        <v>21</v>
+      </c>
+      <c r="C24" s="5">
         <v>7512146.3619999997</v>
       </c>
-      <c r="K5" s="6">
+      <c r="D24" s="5">
         <v>4691255.6040000003</v>
       </c>
-      <c r="L5" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="O5" s="4"/>
-      <c r="P5" s="8">
-        <v>2</v>
-      </c>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
-      <c r="T5" s="1"/>
-      <c r="U5" s="1"/>
-      <c r="W5" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="X5" s="13">
-        <f>X3+X4</f>
-        <v>0</v>
-      </c>
-      <c r="Y5" s="16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="2:25">
-      <c r="B6" s="8"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="9"/>
-      <c r="G6" s="8">
-        <v>3</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="I6" s="10">
-        <v>43880.659756944442</v>
-      </c>
-      <c r="J6" s="6">
-        <v>7512144.1469999999</v>
-      </c>
-      <c r="K6" s="6">
-        <v>4691234.6270000003</v>
-      </c>
-      <c r="L6" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="O6" s="4"/>
-      <c r="P6" s="8">
-        <v>3</v>
-      </c>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
-      <c r="T6" s="1"/>
-      <c r="U6" s="1"/>
-    </row>
-    <row r="7" spans="2:25">
-      <c r="B7" s="8"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="9"/>
-      <c r="G7" s="8">
-        <v>4</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="I7" s="10">
-        <v>43880.660069444442</v>
-      </c>
-      <c r="J7" s="6">
-        <v>7512152.3020000001</v>
-      </c>
-      <c r="K7" s="6">
-        <v>4691233.6469999999</v>
-      </c>
-      <c r="L7" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="O7" s="4"/>
-      <c r="P7" s="8">
-        <v>4</v>
-      </c>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="6"/>
-      <c r="T7" s="1"/>
-      <c r="U7" s="1"/>
-    </row>
-    <row r="8" spans="2:25">
-      <c r="B8" s="8"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="9"/>
-      <c r="G8" s="8">
-        <v>10</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="I8" s="10">
-        <v>43880.677222222221</v>
-      </c>
-      <c r="J8" s="6">
-        <v>7512152.3041000003</v>
-      </c>
-      <c r="K8" s="6">
-        <v>4691234.7411000002</v>
-      </c>
-      <c r="L8" s="9">
-        <v>610.76030000000003</v>
-      </c>
-      <c r="M8" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="N8" s="9">
-        <v>2.3800000000000002E-2</v>
-      </c>
-      <c r="O8" s="4"/>
-      <c r="P8" s="8">
-        <v>5</v>
-      </c>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="6"/>
-      <c r="S8" s="6"/>
-      <c r="T8" s="1"/>
-      <c r="U8" s="1"/>
-    </row>
-    <row r="9" spans="2:25">
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="G9" s="8">
-        <v>11</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="I9" s="10">
-        <v>43880.677557870367</v>
-      </c>
-      <c r="J9" s="6">
-        <v>7512151.7724000001</v>
-      </c>
-      <c r="K9" s="6">
-        <v>4691234.5689000003</v>
-      </c>
-      <c r="L9" s="9">
-        <v>610.74659999999994</v>
-      </c>
-      <c r="M9" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="N9" s="9">
-        <v>1.61E-2</v>
-      </c>
-      <c r="O9" s="18"/>
-      <c r="P9" s="8">
-        <v>6</v>
-      </c>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="6"/>
-      <c r="S9" s="6"/>
-      <c r="T9" s="1"/>
-      <c r="U9" s="1"/>
-    </row>
-    <row r="10" spans="2:25">
-      <c r="G10" s="8">
-        <v>12</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="I10" s="10">
-        <v>43880.677893518521</v>
-      </c>
-      <c r="J10" s="6">
-        <v>7512155.2353999997</v>
-      </c>
-      <c r="K10" s="6">
-        <v>4691253.6283</v>
-      </c>
-      <c r="L10" s="9">
-        <v>610.67970000000003</v>
-      </c>
-      <c r="M10" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="N10" s="9">
-        <v>1.34E-2</v>
-      </c>
-      <c r="O10" s="4"/>
-      <c r="P10" s="21">
-        <v>7</v>
-      </c>
-      <c r="Q10" s="22"/>
-      <c r="R10" s="22"/>
-      <c r="S10" s="9"/>
-      <c r="T10" s="23"/>
-      <c r="U10" s="23"/>
-    </row>
-    <row r="11" spans="2:25">
-      <c r="G11" s="8">
-        <v>13</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="I11" s="10">
-        <v>43880.678113425929</v>
-      </c>
-      <c r="J11" s="6">
-        <v>7512153.7981000002</v>
-      </c>
-      <c r="K11" s="6">
-        <v>4691245.1415999997</v>
-      </c>
-      <c r="L11" s="9">
-        <v>610.88059999999996</v>
-      </c>
-      <c r="M11" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="N11" s="9">
-        <v>1.0500000000000001E-2</v>
-      </c>
-      <c r="O11" s="4"/>
-      <c r="P11" s="21">
-        <v>10</v>
-      </c>
-      <c r="Q11" s="22"/>
-      <c r="R11" s="22"/>
-      <c r="S11" s="9"/>
-      <c r="T11" s="23"/>
-      <c r="U11" s="23"/>
-    </row>
-    <row r="12" spans="2:25">
-      <c r="G12" s="8">
-        <v>14</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="I12" s="10">
-        <v>43880.679108796299</v>
-      </c>
-      <c r="J12" s="6">
-        <v>7512160.9714000002</v>
-      </c>
-      <c r="K12" s="6">
-        <v>4691244.0833999999</v>
-      </c>
-      <c r="L12" s="9">
-        <v>610.86940000000004</v>
-      </c>
-      <c r="M12" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="N12" s="9">
-        <v>1.21E-2</v>
-      </c>
-      <c r="O12" s="4"/>
-    </row>
-    <row r="13" spans="2:25">
-      <c r="G13" s="8">
-        <v>15</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="I13" s="10">
-        <v>43880.679444444446</v>
-      </c>
-      <c r="J13" s="6">
-        <v>7512159.4502999997</v>
-      </c>
-      <c r="K13" s="6">
-        <v>4691233.7202000003</v>
-      </c>
-      <c r="L13" s="9">
-        <v>610.67780000000005</v>
-      </c>
-      <c r="M13" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="N13" s="9">
-        <v>2.8299999999999999E-2</v>
-      </c>
-      <c r="O13" s="4"/>
-    </row>
-    <row r="14" spans="2:25">
-      <c r="G14" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="I14" s="10">
-        <v>43880.672384259262</v>
-      </c>
-      <c r="J14" s="6">
-        <v>7512154.9194</v>
-      </c>
-      <c r="K14" s="6">
-        <v>4691254.08</v>
-      </c>
-      <c r="L14" s="9">
-        <v>610.71130000000005</v>
-      </c>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9">
-        <v>1.77E-2</v>
-      </c>
-      <c r="O14" s="4"/>
-    </row>
-    <row r="15" spans="2:25">
-      <c r="G15" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="I15" s="10">
-        <v>43880.672939814816</v>
-      </c>
-      <c r="J15" s="6">
-        <v>7512146.3594000004</v>
-      </c>
-      <c r="K15" s="6">
-        <v>4691255.5882000001</v>
-      </c>
-      <c r="L15" s="9">
-        <v>610.70129999999995</v>
-      </c>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9">
-        <v>1.5800000000000002E-2</v>
-      </c>
-      <c r="O15" s="4"/>
-    </row>
-    <row r="16" spans="2:25">
-      <c r="G16" s="8" t="s">
+    </row>
+    <row r="25" spans="2:6">
+      <c r="B25" s="7">
         <v>22</v>
       </c>
-      <c r="H16" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="I16" s="10">
-        <v>43880.67459490741</v>
-      </c>
-      <c r="J16" s="6">
-        <v>7512144.1547999997</v>
-      </c>
-      <c r="K16" s="6">
-        <v>4691234.6127000004</v>
-      </c>
-      <c r="L16" s="9">
-        <v>610.64239999999995</v>
-      </c>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9">
-        <v>3.4099999999999998E-2</v>
-      </c>
-      <c r="O16" s="4"/>
-    </row>
-    <row r="17" spans="7:21">
-      <c r="G17" s="8" t="s">
+      <c r="C25" s="5">
+        <v>7512138.835</v>
+      </c>
+      <c r="D25" s="5">
+        <v>4691256.8770000003</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6">
+      <c r="B26" s="7">
         <v>23</v>
       </c>
-      <c r="H17" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="I17" s="10">
-        <v>43880.676215277781</v>
-      </c>
-      <c r="J17" s="6">
-        <v>7512152.3095000004</v>
-      </c>
-      <c r="K17" s="6">
-        <v>4691233.6383999996</v>
-      </c>
-      <c r="L17" s="9">
-        <v>610.78030000000001</v>
-      </c>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9">
-        <v>4.5400000000000003E-2</v>
-      </c>
-      <c r="O17" s="18"/>
-      <c r="R17" s="11"/>
-      <c r="S17" s="11"/>
-      <c r="T17" s="11"/>
-      <c r="U17" s="11"/>
-    </row>
-    <row r="18" spans="7:21">
-      <c r="G18" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="H18" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="I18" s="10">
-        <v>43880.675092592595</v>
-      </c>
-      <c r="J18" s="6">
-        <v>7512144.2679000003</v>
-      </c>
-      <c r="K18" s="6">
-        <v>4691235.2572999997</v>
-      </c>
-      <c r="L18" s="9">
-        <v>610.63170000000002</v>
-      </c>
-      <c r="M18" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="N18" s="9">
-        <v>2.29E-2</v>
-      </c>
-      <c r="O18" s="18"/>
-      <c r="R18" s="11"/>
-      <c r="S18" s="11"/>
-      <c r="T18" s="11"/>
-      <c r="U18" s="11"/>
-    </row>
-    <row r="19" spans="7:21">
-      <c r="G19" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="H19" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="I19" s="10">
-        <v>43880.676840277774</v>
-      </c>
-      <c r="J19" s="6">
-        <v>7512152.2906999998</v>
-      </c>
-      <c r="K19" s="6">
-        <v>4691234.3432999998</v>
-      </c>
-      <c r="L19" s="9">
-        <v>610.74570000000006</v>
-      </c>
-      <c r="M19" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="N19" s="9">
-        <v>2.0799999999999999E-2</v>
-      </c>
-      <c r="O19" s="18"/>
-      <c r="R19" s="11"/>
-      <c r="S19" s="11"/>
-      <c r="T19" s="11"/>
-      <c r="U19" s="11"/>
-    </row>
-    <row r="20" spans="7:21">
-      <c r="G20" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="H20" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="I20" s="10">
-        <v>43880.671666666669</v>
-      </c>
-      <c r="J20" s="6">
-        <v>7512153.9415999996</v>
-      </c>
-      <c r="K20" s="6">
-        <v>4691252.3926999997</v>
-      </c>
-      <c r="L20" s="9">
-        <v>609.07100000000003</v>
-      </c>
-      <c r="M20" s="9"/>
-      <c r="N20" s="9">
-        <v>0</v>
-      </c>
-      <c r="O20" s="18"/>
-      <c r="R20" s="11"/>
-      <c r="S20" s="11"/>
-      <c r="T20" s="11"/>
-      <c r="U20" s="11"/>
-    </row>
-    <row r="21" spans="7:21">
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="9"/>
-      <c r="N21" s="9"/>
-      <c r="O21" s="18"/>
-    </row>
-    <row r="22" spans="7:21">
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="9"/>
-      <c r="N22" s="9"/>
-      <c r="O22" s="4"/>
-    </row>
-    <row r="23" spans="7:21">
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="9"/>
-      <c r="N23" s="9"/>
-      <c r="O23" s="4"/>
-    </row>
-    <row r="24" spans="7:21">
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="9"/>
-      <c r="N24" s="9"/>
-      <c r="O24" s="4"/>
-    </row>
-    <row r="25" spans="7:21">
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="9"/>
-      <c r="M25" s="9"/>
-      <c r="N25" s="9"/>
-      <c r="O25" s="4"/>
-    </row>
-    <row r="26" spans="7:21">
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="9"/>
-      <c r="M26" s="9"/>
-      <c r="N26" s="9"/>
-      <c r="O26" s="4"/>
-    </row>
-    <row r="27" spans="7:21">
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="14"/>
-      <c r="K27" s="14"/>
-      <c r="L27" s="14"/>
-      <c r="N27" s="14"/>
-      <c r="O27" s="4"/>
-    </row>
-    <row r="28" spans="7:21">
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="14"/>
-      <c r="K28" s="14"/>
-      <c r="L28" s="14"/>
-      <c r="N28" s="14"/>
-      <c r="O28" s="18"/>
-    </row>
-    <row r="29" spans="7:21">
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="14"/>
-      <c r="K29" s="14"/>
-      <c r="L29" s="14"/>
-      <c r="N29" s="14"/>
-      <c r="O29" s="18"/>
-    </row>
-    <row r="30" spans="7:21">
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="14"/>
-      <c r="J30" s="14"/>
-      <c r="K30" s="14"/>
-      <c r="L30" s="14"/>
-      <c r="N30" s="14"/>
-      <c r="O30" s="18"/>
-    </row>
-    <row r="31" spans="7:21">
-      <c r="O31" s="18"/>
-    </row>
-    <row r="32" spans="7:21">
-      <c r="O32" s="18"/>
-    </row>
-    <row r="33" spans="15:23">
-      <c r="O33" s="18"/>
-    </row>
-    <row r="34" spans="15:23">
-      <c r="O34" s="18"/>
-    </row>
-    <row r="35" spans="15:23">
-      <c r="O35" s="18"/>
-      <c r="R35" s="14"/>
-      <c r="S35" s="14"/>
-      <c r="T35" s="14"/>
-      <c r="U35" s="14"/>
-    </row>
-    <row r="36" spans="15:23">
-      <c r="O36" s="18"/>
-      <c r="R36" s="14"/>
-      <c r="S36" s="14"/>
-      <c r="T36" s="14"/>
-      <c r="U36" s="14"/>
-    </row>
-    <row r="37" spans="15:23">
-      <c r="O37" s="18"/>
-      <c r="R37" s="14"/>
-      <c r="S37" s="14"/>
-      <c r="T37" s="14"/>
-      <c r="U37" s="14"/>
-      <c r="W37" s="11"/>
-    </row>
-    <row r="38" spans="15:23">
-      <c r="O38" s="18"/>
-      <c r="P38" s="11"/>
-      <c r="Q38" s="11"/>
-      <c r="R38" s="14"/>
-      <c r="S38" s="14"/>
-      <c r="T38" s="14"/>
-      <c r="U38" s="14"/>
-      <c r="W38" s="11"/>
-    </row>
-    <row r="39" spans="15:23">
-      <c r="O39" s="18"/>
-      <c r="P39" s="11"/>
-      <c r="Q39" s="11"/>
-      <c r="R39" s="14"/>
-      <c r="S39" s="14"/>
-      <c r="T39" s="14"/>
-      <c r="U39" s="14"/>
-      <c r="W39" s="11"/>
-    </row>
-    <row r="40" spans="15:23">
-      <c r="O40" s="18"/>
-      <c r="P40" s="11"/>
-      <c r="Q40" s="11"/>
-      <c r="W40" s="11"/>
-    </row>
-    <row r="41" spans="15:23">
-      <c r="O41" s="18"/>
-      <c r="P41" s="14"/>
-      <c r="Q41" s="11"/>
-      <c r="V41" s="11"/>
-    </row>
-    <row r="42" spans="15:23">
-      <c r="O42" s="18"/>
-      <c r="P42" s="14"/>
-      <c r="V42" s="11"/>
-    </row>
-    <row r="43" spans="15:23">
-      <c r="O43" s="18"/>
-      <c r="P43" s="14"/>
-      <c r="V43" s="11"/>
-    </row>
-    <row r="44" spans="15:23">
-      <c r="O44" s="18"/>
-      <c r="P44" s="14"/>
-      <c r="V44" s="11"/>
-    </row>
-    <row r="45" spans="15:23">
-      <c r="O45" s="18"/>
-    </row>
-    <row r="46" spans="15:23">
-      <c r="O46" s="18"/>
-    </row>
-    <row r="47" spans="15:23">
-      <c r="O47" s="18"/>
-    </row>
-    <row r="48" spans="15:23">
-      <c r="O48" s="18"/>
-    </row>
-    <row r="49" spans="2:26">
-      <c r="O49" s="18"/>
-    </row>
-    <row r="50" spans="2:26">
-      <c r="O50" s="18"/>
-    </row>
-    <row r="51" spans="2:26">
-      <c r="O51" s="18"/>
-    </row>
-    <row r="52" spans="2:26">
-      <c r="O52" s="18"/>
-    </row>
-    <row r="53" spans="2:26">
-      <c r="O53" s="18"/>
-    </row>
-    <row r="54" spans="2:26">
-      <c r="O54" s="18"/>
-    </row>
-    <row r="55" spans="2:26">
-      <c r="O55" s="18"/>
-      <c r="W55" s="14"/>
-    </row>
-    <row r="56" spans="2:26">
-      <c r="O56" s="18"/>
-      <c r="Q56" s="14"/>
-      <c r="W56" s="14"/>
-    </row>
-    <row r="57" spans="2:26">
-      <c r="O57" s="18"/>
-      <c r="Q57" s="14"/>
-      <c r="W57" s="14"/>
-    </row>
-    <row r="58" spans="2:26">
-      <c r="O58" s="18"/>
-      <c r="Q58" s="14"/>
-      <c r="W58" s="14"/>
-      <c r="X58" s="11"/>
-      <c r="Y58" s="11"/>
-    </row>
-    <row r="59" spans="2:26">
-      <c r="O59" s="18"/>
-      <c r="Q59" s="14"/>
-      <c r="V59" s="14"/>
-      <c r="W59" s="14"/>
-      <c r="X59" s="11"/>
-      <c r="Y59" s="11"/>
-    </row>
-    <row r="60" spans="2:26">
-      <c r="O60" s="18"/>
-      <c r="Q60" s="14"/>
-      <c r="V60" s="14"/>
-      <c r="X60" s="11"/>
-      <c r="Y60" s="11"/>
-      <c r="Z60" s="11"/>
-    </row>
-    <row r="61" spans="2:26">
-      <c r="O61" s="18"/>
-      <c r="V61" s="14"/>
-      <c r="X61" s="11"/>
-      <c r="Y61" s="11"/>
-      <c r="Z61" s="11"/>
-    </row>
-    <row r="62" spans="2:26" s="11" customFormat="1">
-      <c r="B62"/>
-      <c r="C62"/>
-      <c r="D62"/>
-      <c r="E62"/>
-      <c r="F62"/>
-      <c r="G62"/>
-      <c r="H62"/>
-      <c r="I62"/>
-      <c r="J62"/>
-      <c r="K62"/>
-      <c r="L62"/>
-      <c r="M62" s="18"/>
-      <c r="N62"/>
-      <c r="O62" s="18"/>
-      <c r="P62"/>
-      <c r="Q62"/>
-      <c r="R62"/>
-      <c r="S62"/>
-      <c r="T62"/>
-      <c r="U62"/>
-      <c r="V62" s="14"/>
-      <c r="W62"/>
-      <c r="X62"/>
-      <c r="Y62"/>
-    </row>
-    <row r="63" spans="2:26" s="11" customFormat="1">
-      <c r="B63"/>
-      <c r="C63"/>
-      <c r="D63"/>
-      <c r="E63"/>
-      <c r="F63"/>
-      <c r="G63"/>
-      <c r="H63"/>
-      <c r="I63"/>
-      <c r="J63"/>
-      <c r="K63"/>
-      <c r="L63"/>
-      <c r="M63" s="18"/>
-      <c r="N63"/>
-      <c r="O63" s="18"/>
-      <c r="P63"/>
-      <c r="Q63"/>
-      <c r="R63"/>
-      <c r="S63"/>
-      <c r="T63"/>
-      <c r="U63"/>
-      <c r="V63" s="14"/>
-      <c r="W63"/>
-      <c r="X63"/>
-      <c r="Y63"/>
-    </row>
-    <row r="64" spans="2:26" s="11" customFormat="1">
-      <c r="B64"/>
-      <c r="C64"/>
-      <c r="D64"/>
-      <c r="E64"/>
-      <c r="F64"/>
-      <c r="G64"/>
-      <c r="H64"/>
-      <c r="I64"/>
-      <c r="J64"/>
-      <c r="K64"/>
-      <c r="L64"/>
-      <c r="M64" s="18"/>
-      <c r="N64"/>
-      <c r="O64" s="18"/>
-      <c r="P64"/>
-      <c r="Q64"/>
-      <c r="R64"/>
-      <c r="S64"/>
-      <c r="T64"/>
-      <c r="U64"/>
-      <c r="V64"/>
-      <c r="W64"/>
-      <c r="X64"/>
-      <c r="Y64"/>
-      <c r="Z64"/>
-    </row>
-    <row r="65" spans="2:26" s="11" customFormat="1">
-      <c r="B65"/>
-      <c r="C65"/>
-      <c r="D65"/>
-      <c r="E65"/>
-      <c r="F65"/>
-      <c r="G65"/>
-      <c r="H65"/>
-      <c r="I65"/>
-      <c r="J65"/>
-      <c r="K65"/>
-      <c r="L65"/>
-      <c r="M65" s="18"/>
-      <c r="N65"/>
-      <c r="O65" s="14"/>
-      <c r="P65"/>
-      <c r="Q65"/>
-      <c r="R65"/>
-      <c r="S65"/>
-      <c r="T65"/>
-      <c r="U65"/>
-      <c r="V65"/>
-      <c r="W65"/>
-      <c r="X65"/>
-      <c r="Y65"/>
-      <c r="Z65"/>
-    </row>
-    <row r="66" spans="2:26">
-      <c r="O66" s="14"/>
-    </row>
-    <row r="67" spans="2:26">
-      <c r="O67" s="14"/>
-    </row>
-    <row r="68" spans="2:26">
-      <c r="O68" s="14"/>
-    </row>
-    <row r="76" spans="2:26">
-      <c r="X76" s="14"/>
-      <c r="Y76" s="14"/>
-    </row>
-    <row r="77" spans="2:26">
-      <c r="X77" s="14"/>
-      <c r="Y77" s="14"/>
-    </row>
-    <row r="78" spans="2:26">
-      <c r="X78" s="14"/>
-      <c r="Y78" s="14"/>
-      <c r="Z78" s="14"/>
-    </row>
-    <row r="79" spans="2:26">
-      <c r="X79" s="14"/>
-      <c r="Y79" s="14"/>
-      <c r="Z79" s="14"/>
-    </row>
-    <row r="80" spans="2:26" s="14" customFormat="1">
-      <c r="B80"/>
-      <c r="C80"/>
-      <c r="D80"/>
-      <c r="E80"/>
-      <c r="F80"/>
-      <c r="G80"/>
-      <c r="H80"/>
-      <c r="I80"/>
-      <c r="J80"/>
-      <c r="K80"/>
-      <c r="L80"/>
-      <c r="M80" s="18"/>
-      <c r="N80"/>
-      <c r="O80"/>
-      <c r="P80"/>
-      <c r="Q80"/>
-      <c r="R80"/>
-      <c r="S80"/>
-      <c r="T80"/>
-      <c r="U80"/>
-      <c r="V80"/>
-      <c r="W80"/>
-    </row>
-    <row r="81" spans="2:26" s="14" customFormat="1">
-      <c r="B81"/>
-      <c r="C81"/>
-      <c r="D81"/>
-      <c r="E81"/>
-      <c r="F81"/>
-      <c r="G81"/>
-      <c r="H81"/>
-      <c r="I81"/>
-      <c r="J81"/>
-      <c r="K81"/>
-      <c r="L81"/>
-      <c r="M81" s="18"/>
-      <c r="N81"/>
-      <c r="O81"/>
-      <c r="P81"/>
-      <c r="Q81"/>
-      <c r="R81"/>
-      <c r="S81"/>
-      <c r="T81"/>
-      <c r="U81"/>
-      <c r="V81"/>
-      <c r="W81"/>
-      <c r="X81"/>
-      <c r="Y81"/>
-    </row>
-    <row r="82" spans="2:26" s="14" customFormat="1">
-      <c r="B82"/>
-      <c r="C82"/>
-      <c r="D82"/>
-      <c r="E82"/>
-      <c r="F82"/>
-      <c r="G82"/>
-      <c r="H82"/>
-      <c r="I82"/>
-      <c r="J82"/>
-      <c r="K82"/>
-      <c r="L82"/>
-      <c r="M82" s="18"/>
-      <c r="N82"/>
-      <c r="O82"/>
-      <c r="P82"/>
-      <c r="Q82"/>
-      <c r="R82"/>
-      <c r="S82"/>
-      <c r="T82"/>
-      <c r="U82"/>
-      <c r="V82"/>
-      <c r="W82"/>
-      <c r="X82"/>
-      <c r="Y82"/>
-    </row>
-    <row r="83" spans="2:26" s="14" customFormat="1">
-      <c r="B83"/>
-      <c r="C83"/>
-      <c r="D83"/>
-      <c r="E83"/>
-      <c r="F83"/>
-      <c r="G83"/>
-      <c r="H83"/>
-      <c r="I83"/>
-      <c r="J83"/>
-      <c r="K83"/>
-      <c r="L83"/>
-      <c r="M83" s="18"/>
-      <c r="N83"/>
-      <c r="O83"/>
-      <c r="P83"/>
-      <c r="Q83"/>
-      <c r="R83"/>
-      <c r="S83"/>
-      <c r="T83"/>
-      <c r="U83"/>
-      <c r="V83"/>
-      <c r="W83"/>
-      <c r="X83"/>
-      <c r="Y83"/>
-      <c r="Z83"/>
-    </row>
-    <row r="84" spans="2:26" s="14" customFormat="1">
-      <c r="B84"/>
-      <c r="C84"/>
-      <c r="D84"/>
-      <c r="E84"/>
-      <c r="F84"/>
-      <c r="G84"/>
-      <c r="H84"/>
-      <c r="I84"/>
-      <c r="J84"/>
-      <c r="K84"/>
-      <c r="L84"/>
-      <c r="M84" s="18"/>
-      <c r="N84"/>
-      <c r="O84"/>
-      <c r="P84"/>
-      <c r="Q84"/>
-      <c r="R84"/>
-      <c r="S84"/>
-      <c r="T84"/>
-      <c r="U84"/>
-      <c r="V84"/>
-      <c r="W84"/>
-      <c r="X84"/>
-      <c r="Y84"/>
-      <c r="Z84"/>
+      <c r="C26" s="5">
+        <v>7512118.8839999996</v>
+      </c>
+      <c r="D26" s="5">
+        <v>4691260.7379999999</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6">
+      <c r="B27" s="7">
+        <v>24</v>
+      </c>
+      <c r="C27" s="5">
+        <v>7512117.6469999999</v>
+      </c>
+      <c r="D27" s="5">
+        <v>4691259.6220000004</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="X2:Y2"/>
-    <mergeCell ref="P2:U2"/>
-    <mergeCell ref="G2:N2"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="O2:T2"/>
+    <mergeCell ref="F2:M2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="40" orientation="portrait" r:id="rId1"/>

--- a/cd/1.1-Te-dhenat-kadastrale-zyrtare-ne-forme-digjitale-976-11-Eshref-Beka.xlsx
+++ b/cd/1.1-Te-dhenat-kadastrale-zyrtare-ne-forme-digjitale-976-11-Eshref-Beka.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Ferizaj\Ferizaj\Kadastrale\2019\976-11-Ferizaj-Eshref-Beka\cd\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
   </bookViews>
@@ -13,9 +18,9 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$B$2:$M$77</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="152511"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,9 +30,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="47">
   <si>
-    <t>Pikat zyrtare</t>
-  </si>
-  <si>
     <t>Nr</t>
   </si>
   <si>
@@ -164,17 +166,20 @@
   </si>
   <si>
     <t>Shufër metalike</t>
+  </si>
+  <si>
+    <t>Pikat zyrtare 976-11 Ferizaj</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -310,7 +315,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
+      <sz val="8.9"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1035,27 +1040,27 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B2:X27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="O2" sqref="O2:T5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.140625" style="13" customWidth="1"/>
-    <col min="2" max="2" width="4.42578125" style="13" customWidth="1"/>
+    <col min="2" max="2" width="7" style="13" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="11.5703125" style="13" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.7109375" style="13" customWidth="1"/>
     <col min="6" max="6" width="14.28515625" style="13" bestFit="1" customWidth="1"/>
@@ -1066,11 +1071,11 @@
     <col min="12" max="12" width="8.7109375" style="13" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="7" style="13" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="5.7109375" style="13" customWidth="1"/>
-    <col min="15" max="15" width="3.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7" style="13" bestFit="1" customWidth="1"/>
     <col min="16" max="17" width="11.5703125" style="13" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="12.7109375" style="13" customWidth="1"/>
     <col min="19" max="19" width="6" style="13" customWidth="1"/>
-    <col min="20" max="20" width="15.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.42578125" style="13" customWidth="1"/>
     <col min="21" max="21" width="5.7109375" style="13" customWidth="1"/>
     <col min="22" max="22" width="7.85546875" style="13" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="4" style="13" bestFit="1" customWidth="1"/>
@@ -1078,14 +1083,14 @@
     <col min="25" max="16384" width="9.140625" style="13"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:24">
+    <row r="2" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B2" s="15" t="s">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="C2" s="15"/>
       <c r="D2" s="15"/>
       <c r="F2" s="15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G2" s="15"/>
       <c r="H2" s="15"/>
@@ -1096,7 +1101,7 @@
       <c r="M2" s="15"/>
       <c r="N2" s="14"/>
       <c r="O2" s="17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P2" s="17"/>
       <c r="Q2" s="17"/>
@@ -1104,91 +1109,91 @@
       <c r="S2" s="17"/>
       <c r="T2" s="17"/>
       <c r="V2" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="W2" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="W2" s="16" t="s">
-        <v>16</v>
-      </c>
       <c r="X2" s="16"/>
     </row>
-    <row r="3" spans="2:24">
+    <row r="3" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="D3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>3</v>
-      </c>
       <c r="F3" s="11" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="I3" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="J3" s="11" t="s">
+      <c r="L3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="M3" s="11" t="s">
         <v>13</v>
-      </c>
-      <c r="L3" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="M3" s="11" t="s">
-        <v>14</v>
       </c>
       <c r="N3" s="14"/>
       <c r="O3" s="12" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P3" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="Q3" s="9" t="s">
+      <c r="R3" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="S3" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="R3" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="S3" s="12" t="s">
+      <c r="T3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="T3" s="12" t="s">
-        <v>9</v>
-      </c>
       <c r="V3" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W3" s="4">
         <v>814</v>
       </c>
       <c r="X3" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="2:24">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B4" s="7">
-        <v>1</v>
+        <v>165924</v>
       </c>
       <c r="C4" s="5">
-        <v>7512116.6869999999</v>
+        <v>7512114.852</v>
       </c>
       <c r="D4" s="5">
-        <v>4691265.5640000002</v>
+        <v>4691276.92</v>
       </c>
       <c r="F4" s="7">
         <v>10</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H4" s="8">
         <v>43880.677222222221</v>
@@ -1203,14 +1208,14 @@
         <v>610.76030000000003</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M4" s="7">
         <v>2.3800000000000002E-2</v>
       </c>
       <c r="N4" s="14"/>
       <c r="O4" s="7">
-        <v>1</v>
+        <v>166950</v>
       </c>
       <c r="P4" s="5">
         <v>7512154.9110000003</v>
@@ -1225,33 +1230,33 @@
         <v>3</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V4" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="W4" s="4">
         <v>176</v>
       </c>
       <c r="X4" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="2:24">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B5" s="7">
-        <v>2</v>
+        <v>166129</v>
       </c>
       <c r="C5" s="5">
-        <v>7512114.852</v>
+        <v>7512116.6869999999</v>
       </c>
       <c r="D5" s="5">
-        <v>4691276.92</v>
+        <v>4691265.5640000002</v>
       </c>
       <c r="F5" s="7">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H5" s="8">
         <v>43880.677557870367</v>
@@ -1266,14 +1271,14 @@
         <v>610.74659999999994</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M5" s="7">
         <v>1.61E-2</v>
       </c>
       <c r="N5" s="14"/>
       <c r="O5" s="7">
-        <v>2</v>
+        <v>166951</v>
       </c>
       <c r="P5" s="5">
         <v>7512146.3619999997</v>
@@ -1288,34 +1293,34 @@
         <v>3</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V5" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="W5" s="10">
         <f>W3+W4</f>
         <v>990</v>
       </c>
       <c r="X5" s="11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="2:24">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B6" s="7">
-        <v>3</v>
+        <v>166134</v>
       </c>
       <c r="C6" s="5">
-        <v>7512137.8329999996</v>
+        <v>7512144.1469999999</v>
       </c>
       <c r="D6" s="5">
-        <v>4691276.5199999996</v>
+        <v>4691234.6270000003</v>
       </c>
       <c r="F6" s="7">
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H6" s="8">
         <v>43880.677893518521</v>
@@ -1330,28 +1335,28 @@
         <v>610.67970000000003</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M6" s="7">
         <v>1.34E-2</v>
       </c>
       <c r="N6" s="14"/>
     </row>
-    <row r="7" spans="2:24">
+    <row r="7" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B7" s="7">
-        <v>4</v>
+        <v>166135</v>
       </c>
       <c r="C7" s="5">
-        <v>7512136.1260000002</v>
+        <v>7512152.3020000001</v>
       </c>
       <c r="D7" s="5">
-        <v>4691261.4890000001</v>
+        <v>4691233.6469999999</v>
       </c>
       <c r="F7" s="7">
         <v>13</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H7" s="8">
         <v>43880.678113425929</v>
@@ -1366,28 +1371,28 @@
         <v>610.88059999999996</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M7" s="7">
         <v>1.0500000000000001E-2</v>
       </c>
       <c r="N7" s="14"/>
     </row>
-    <row r="8" spans="2:24">
+    <row r="8" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B8" s="7">
-        <v>5</v>
+        <v>166152</v>
       </c>
       <c r="C8" s="5">
-        <v>7512146.1459999997</v>
+        <v>7512117.6469999999</v>
       </c>
       <c r="D8" s="5">
-        <v>4691259.7050000001</v>
+        <v>4691259.6220000004</v>
       </c>
       <c r="F8" s="7">
         <v>14</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H8" s="8">
         <v>43880.679108796299</v>
@@ -1402,28 +1407,28 @@
         <v>610.86940000000004</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M8" s="7">
         <v>1.21E-2</v>
       </c>
       <c r="N8" s="14"/>
     </row>
-    <row r="9" spans="2:24">
+    <row r="9" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B9" s="7">
-        <v>6</v>
+        <v>166895</v>
       </c>
       <c r="C9" s="5">
-        <v>7512154.0080000004</v>
+        <v>7512181.04</v>
       </c>
       <c r="D9" s="5">
-        <v>4691258.3049999997</v>
+        <v>4691272.142</v>
       </c>
       <c r="F9" s="7">
         <v>15</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H9" s="8">
         <v>43880.679444444446</v>
@@ -1438,27 +1443,27 @@
         <v>610.67780000000005</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M9" s="7">
         <v>2.8299999999999999E-2</v>
       </c>
     </row>
-    <row r="10" spans="2:24">
+    <row r="10" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B10" s="7">
-        <v>7</v>
+        <v>166896</v>
       </c>
       <c r="C10" s="5">
-        <v>7512163.6950000003</v>
+        <v>7512162.6119999997</v>
       </c>
       <c r="D10" s="5">
-        <v>4691256.58</v>
+        <v>4691276.0880000005</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H10" s="8">
         <v>43880.672384259262</v>
@@ -1478,21 +1483,21 @@
       </c>
       <c r="N10" s="14"/>
     </row>
-    <row r="11" spans="2:24">
+    <row r="11" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B11" s="7">
-        <v>8</v>
+        <v>166897</v>
       </c>
       <c r="C11" s="5">
-        <v>7512165.1830000002</v>
+        <v>7512157.5659999996</v>
       </c>
       <c r="D11" s="5">
-        <v>4691266.0870000003</v>
+        <v>4691276.176</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H11" s="8">
         <v>43880.672939814816</v>
@@ -1512,21 +1517,21 @@
       </c>
       <c r="N11" s="14"/>
     </row>
-    <row r="12" spans="2:24">
+    <row r="12" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B12" s="7">
-        <v>9</v>
+        <v>166899</v>
       </c>
       <c r="C12" s="5">
-        <v>7512166.5130000003</v>
+        <v>7512137.8329999996</v>
       </c>
       <c r="D12" s="5">
-        <v>4691274.5839999998</v>
+        <v>4691276.5199999996</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H12" s="8">
         <v>43880.67459490741</v>
@@ -1546,21 +1551,21 @@
       </c>
       <c r="N12" s="14"/>
     </row>
-    <row r="13" spans="2:24">
+    <row r="13" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B13" s="7">
-        <v>10</v>
+        <v>166939</v>
       </c>
       <c r="C13" s="5">
-        <v>7512157.5659999996</v>
+        <v>7512136.1260000002</v>
       </c>
       <c r="D13" s="5">
-        <v>4691276.176</v>
+        <v>4691261.4890000001</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H13" s="8">
         <v>43880.676215277781</v>
@@ -1580,21 +1585,21 @@
       </c>
       <c r="N13" s="14"/>
     </row>
-    <row r="14" spans="2:24">
+    <row r="14" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B14" s="7">
-        <v>11</v>
+        <v>166940</v>
       </c>
       <c r="C14" s="5">
-        <v>7512162.6119999997</v>
+        <v>7512146.1459999997</v>
       </c>
       <c r="D14" s="5">
-        <v>4691276.0880000005</v>
+        <v>4691259.7050000001</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H14" s="8">
         <v>43880.675092592595</v>
@@ -1614,21 +1619,21 @@
       </c>
       <c r="N14" s="14"/>
     </row>
-    <row r="15" spans="2:24">
+    <row r="15" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B15" s="7">
-        <v>12</v>
+        <v>166941</v>
       </c>
       <c r="C15" s="5">
-        <v>7512181.04</v>
+        <v>7512154.0080000004</v>
       </c>
       <c r="D15" s="5">
-        <v>4691272.142</v>
+        <v>4691258.3049999997</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H15" s="8">
         <v>43880.676840277774</v>
@@ -1648,21 +1653,21 @@
       </c>
       <c r="N15" s="14"/>
     </row>
-    <row r="16" spans="2:24">
+    <row r="16" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B16" s="7">
-        <v>13</v>
+        <v>166942</v>
       </c>
       <c r="C16" s="5">
-        <v>7512176.4119999995</v>
+        <v>7512163.6950000003</v>
       </c>
       <c r="D16" s="5">
-        <v>4691250.2460000003</v>
+        <v>4691256.58</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H16" s="8">
         <v>43880.671666666669</v>
@@ -1682,131 +1687,131 @@
       </c>
       <c r="N16" s="14"/>
     </row>
-    <row r="17" spans="2:6">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="7">
-        <v>14</v>
+        <v>166943</v>
       </c>
       <c r="C17" s="5">
+        <v>7512165.1830000002</v>
+      </c>
+      <c r="D17" s="5">
+        <v>4691266.0870000003</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="7">
+        <v>166944</v>
+      </c>
+      <c r="C18" s="5">
+        <v>7512166.5130000003</v>
+      </c>
+      <c r="D18" s="5">
+        <v>4691274.5839999998</v>
+      </c>
+      <c r="F18" s="14"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="7">
+        <v>166945</v>
+      </c>
+      <c r="C19" s="5">
+        <v>7512176.4119999995</v>
+      </c>
+      <c r="D19" s="5">
+        <v>4691250.2460000003</v>
+      </c>
+      <c r="F19" s="14"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="7">
+        <v>166946</v>
+      </c>
+      <c r="C20" s="5">
         <v>7512175.3360000001</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D20" s="5">
         <v>4691245.9740000004</v>
       </c>
-    </row>
-    <row r="18" spans="2:6">
-      <c r="B18" s="7">
-        <v>15</v>
-      </c>
-      <c r="C18" s="5">
+      <c r="F20" s="14"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="7">
+        <v>166947</v>
+      </c>
+      <c r="C21" s="5">
         <v>7512171.824</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D21" s="5">
         <v>4691246.5829999996</v>
       </c>
-      <c r="F18" s="14"/>
-    </row>
-    <row r="19" spans="2:6">
-      <c r="B19" s="7">
-        <v>16</v>
-      </c>
-      <c r="C19" s="5">
+      <c r="F21" s="14"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="7">
+        <v>166948</v>
+      </c>
+      <c r="C22" s="5">
         <v>7512172.5599999996</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D22" s="5">
         <v>4691250.9380000001</v>
       </c>
-      <c r="F19" s="14"/>
-    </row>
-    <row r="20" spans="2:6">
-      <c r="B20" s="7">
-        <v>17</v>
-      </c>
-      <c r="C20" s="5">
+      <c r="F22" s="14"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="7">
+        <v>166949</v>
+      </c>
+      <c r="C23" s="5">
         <v>7512162.4249999998</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D23" s="5">
         <v>4691252.7429999998</v>
       </c>
-      <c r="F20" s="14"/>
-    </row>
-    <row r="21" spans="2:6">
-      <c r="B21" s="7">
-        <v>18</v>
-      </c>
-      <c r="C21" s="5">
+      <c r="F23" s="14"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="7">
+        <v>166950</v>
+      </c>
+      <c r="C24" s="5">
         <v>7512154.9110000003</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D24" s="5">
         <v>4691254.0810000002</v>
       </c>
-      <c r="F21" s="14"/>
-    </row>
-    <row r="22" spans="2:6">
-      <c r="B22" s="7">
-        <v>19</v>
-      </c>
-      <c r="C22" s="5">
-        <v>7512152.3020000001</v>
-      </c>
-      <c r="D22" s="5">
-        <v>4691233.6469999999</v>
-      </c>
-      <c r="F22" s="14"/>
-    </row>
-    <row r="23" spans="2:6">
-      <c r="B23" s="7">
-        <v>20</v>
-      </c>
-      <c r="C23" s="5">
-        <v>7512144.1469999999</v>
-      </c>
-      <c r="D23" s="5">
-        <v>4691234.6270000003</v>
-      </c>
-      <c r="F23" s="14"/>
-    </row>
-    <row r="24" spans="2:6">
-      <c r="B24" s="7">
-        <v>21</v>
-      </c>
-      <c r="C24" s="5">
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="7">
+        <v>166951</v>
+      </c>
+      <c r="C25" s="5">
         <v>7512146.3619999997</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D25" s="5">
         <v>4691255.6040000003</v>
       </c>
     </row>
-    <row r="25" spans="2:6">
-      <c r="B25" s="7">
-        <v>22</v>
-      </c>
-      <c r="C25" s="5">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26" s="7">
+        <v>166952</v>
+      </c>
+      <c r="C26" s="5">
         <v>7512138.835</v>
       </c>
-      <c r="D25" s="5">
+      <c r="D26" s="5">
         <v>4691256.8770000003</v>
       </c>
     </row>
-    <row r="26" spans="2:6">
-      <c r="B26" s="7">
-        <v>23</v>
-      </c>
-      <c r="C26" s="5">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B27" s="7">
+        <v>166953</v>
+      </c>
+      <c r="C27" s="5">
         <v>7512118.8839999996</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D27" s="5">
         <v>4691260.7379999999</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6">
-      <c r="B27" s="7">
-        <v>24</v>
-      </c>
-      <c r="C27" s="5">
-        <v>7512117.6469999999</v>
-      </c>
-      <c r="D27" s="5">
-        <v>4691259.6220000004</v>
       </c>
     </row>
   </sheetData>
@@ -1822,14 +1827,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2:I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
@@ -1838,12 +1843,12 @@
     <col min="9" max="9" width="6.5703125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:9">
+    <row r="2" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
         <v>19</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
       </c>
       <c r="E2" s="2">
         <v>43034.432974537034</v>
@@ -1861,12 +1866,12 @@
         <v>2.1499999999999998E-2</v>
       </c>
     </row>
-    <row r="3" spans="3:9">
+    <row r="3" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E3" s="2">
         <v>43034.436307870368</v>
@@ -1884,12 +1889,12 @@
         <v>1.66E-2</v>
       </c>
     </row>
-    <row r="4" spans="3:9">
+    <row r="4" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E4" s="2">
         <v>43034.437314814815</v>
@@ -1907,12 +1912,12 @@
         <v>2.5100000000000001E-2</v>
       </c>
     </row>
-    <row r="5" spans="3:9">
+    <row r="5" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E5" s="2">
         <v>43034.4378125</v>
@@ -1930,12 +1935,12 @@
         <v>1.84E-2</v>
       </c>
     </row>
-    <row r="6" spans="3:9">
+    <row r="6" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E6" s="2">
         <v>43034.439953703702</v>
@@ -1953,12 +1958,12 @@
         <v>2.5100000000000001E-2</v>
       </c>
     </row>
-    <row r="7" spans="3:9">
+    <row r="7" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E7" s="2">
         <v>43034.440428240741</v>
@@ -1976,12 +1981,12 @@
         <v>2.64E-2</v>
       </c>
     </row>
-    <row r="8" spans="3:9">
+    <row r="8" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E8" s="2">
         <v>43034.441030092596</v>
@@ -1999,12 +2004,12 @@
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="9" spans="3:9">
+    <row r="9" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E9" s="2">
         <v>43034.472314814811</v>
@@ -2022,12 +2027,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="3:9">
+    <row r="10" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E10" s="2">
         <v>43034.473032407404</v>
@@ -2045,12 +2050,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="3:9">
+    <row r="11" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E11" s="2">
         <v>43034.473333333335</v>
@@ -2068,12 +2073,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="3:9">
+    <row r="12" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E12" s="2">
         <v>43034.473715277774</v>
@@ -2091,12 +2096,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="3:9">
+    <row r="13" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E13" s="2">
         <v>43034.474965277775</v>
@@ -2114,12 +2119,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="3:9">
+    <row r="14" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E14" s="2">
         <v>43034.475370370368</v>
@@ -2137,12 +2142,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="3:9">
+    <row r="15" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E15" s="2">
         <v>43034.475937499999</v>
@@ -2160,12 +2165,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="3:9">
+    <row r="16" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" t="s">
         <v>35</v>
-      </c>
-      <c r="D16" t="s">
-        <v>36</v>
       </c>
       <c r="E16" s="2">
         <v>43034.430277777778</v>
@@ -2183,12 +2188,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="3:9">
+    <row r="17" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E17" s="2">
         <v>43034.43953703704</v>
@@ -2206,12 +2211,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="3:9">
+    <row r="18" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E18" s="2">
         <v>43034.447291666664</v>
